--- a/src/assets/边民信息录入模板.xlsx
+++ b/src/assets/边民信息录入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14295" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="边民信息" sheetId="1" r:id="rId1"/>
@@ -14,16 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
-  <si>
-    <t xml:space="preserve">填写须知：
- &lt;1&gt;不能在本excel表中对边民信息进行删除、修改;
- &lt;2&gt;红色*字段为必填字段；
- &lt;4&gt;手机号码：请填写11位国内手机号码；
- &lt;5&gt;省市区请按照管理后台新建边民信息，选择地区时的选择项填写
- &lt;5&gt;详细地址不用填写省市区
-</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <r>
       <rPr>
@@ -92,6 +83,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -106,6 +104,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -120,6 +125,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -134,6 +146,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -148,6 +167,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -200,49 +226,143 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,121 +377,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,6 +406,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -410,6 +448,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -422,19 +472,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,121 +562,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,6 +615,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -619,6 +648,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -626,16 +664,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,30 +712,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -706,10 +720,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -718,147 +732,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1218,91 +1226,76 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:I8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="2" max="2" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="12.625"/>
     <col min="8" max="8" width="22.15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="97" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2">
+        <v>18675867183</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" ht="27" spans="1:9">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4">
-        <v>18675867183</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="4"/>
+      <c r="I2" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
